--- a/data/income_statement/2digits/size/70_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/70_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>70-Activities of head offices; management consultancy activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>70-Activities of head offices; management consultancy activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,656 +841,741 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4906430.09296</v>
+        <v>4194060.83842</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4910704.50366</v>
+        <v>4115985.82641</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5771930.25515</v>
+        <v>4875894.88675</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>5108313.69122</v>
+        <v>4383519.22992</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5015360.13854</v>
+        <v>3674879.19789</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5423213.24421</v>
+        <v>4084939.47783</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>9299233.125770001</v>
+        <v>8449953.357180001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7169067.80919</v>
+        <v>5513820.02932</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>9315454.360719999</v>
+        <v>7261858.441219999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11529570.92991</v>
+        <v>7684915.595609999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12150911.19875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7528752.719640001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>14408895.172</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3398146.99853</v>
+        <v>2842401.81977</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3108356.20094</v>
+        <v>2484863.13675</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4555724.39574</v>
+        <v>3802547.25271</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3939955.81856</v>
+        <v>3409631.85601</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3791652.66344</v>
+        <v>2722650.89314</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4121065.04473</v>
+        <v>3041937.0727</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7713762.418379999</v>
+        <v>7096017.0596</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5527840.71892</v>
+        <v>4175666.52117</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7409822.75877</v>
+        <v>5733632.42873</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8887174.92275</v>
+        <v>5818376.61435</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9536149.52713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5809228.19716</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10616235.325</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>238374.38608</v>
+        <v>210354.84108</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>274282.44659</v>
+        <v>241191.45798</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>231027.39122</v>
+        <v>201465.10969</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>311217.77185</v>
+        <v>261530.52768</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>316091.0615299999</v>
+        <v>228724.48709</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>377250.9075499999</v>
+        <v>314129.84565</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>455013.53655</v>
+        <v>390707.69639</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>511028.01181</v>
+        <v>429395.67728</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>530778.16449</v>
+        <v>423427.77252</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>678724.3476399999</v>
+        <v>455279.24585</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>993984.18455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>792172.75527</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2600842.268</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1269908.70835</v>
+        <v>1141304.17757</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1528065.85613</v>
+        <v>1389931.23168</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>985178.46819</v>
+        <v>871882.5243500001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>857140.10081</v>
+        <v>712356.84623</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>907616.4135700001</v>
+        <v>723503.8176599999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>924897.2919300001</v>
+        <v>728872.5594799999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1130457.17084</v>
+        <v>963228.6011900001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1130199.07846</v>
+        <v>908757.8308699999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1374853.43746</v>
+        <v>1104798.23997</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1963671.65952</v>
+        <v>1411259.73541</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1620777.48707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>927351.7672100001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1191817.579</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>54918.31786</v>
+        <v>52091.81882</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>57524.76741</v>
+        <v>52656.37108</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>67983.00863</v>
+        <v>63899.94208000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>105985.23271</v>
+        <v>101493.77417</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>25302.37045</v>
+        <v>23501.57425</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>33043.95003</v>
+        <v>22449.49221</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>39952.45709</v>
+        <v>28795.09684</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>48855.35909999999</v>
+        <v>42751.61081000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>136102.78223</v>
+        <v>102324.44658</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>315624.0484</v>
+        <v>256188.85101</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>135338.05411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>68323.16972000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>54835.792</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>31415.44867</v>
+        <v>28805.51552</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>35104.88105</v>
+        <v>31014.59868</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>37658.48084</v>
+        <v>34537.46533</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>73530.04212</v>
+        <v>69163.30173000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>18044.56248</v>
+        <v>16398.93995</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>29734.56292</v>
+        <v>22425.78786</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>37683.66055</v>
+        <v>28737.11303</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>39161.18651</v>
+        <v>42079.16927</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>133343.23011</v>
+        <v>101368.1548</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>310742.38381</v>
+        <v>252712.496</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>90112.92435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>56597.96822</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>40498.268</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>22949.48147</v>
+        <v>22853.23839</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>20925.16573</v>
+        <v>20911.79612</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>28820.94651</v>
+        <v>28705.06247</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>30675.33047</v>
+        <v>30674.6165</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>7257.80797</v>
+        <v>7102.6343</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3110.26816</v>
+        <v>0</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1973.38961</v>
+        <v>31.7385</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8765.14574</v>
+        <v>12.04525</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>990.48875</v>
+        <v>38.12255</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>239.26987</v>
+        <v>0.0289</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4295.842360000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3629.57262</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10879.377</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>553.3877199999999</v>
+        <v>433.0649100000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1494.72063</v>
+        <v>729.97628</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1503.58128</v>
+        <v>657.41428</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1779.86012</v>
+        <v>1655.85594</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>199.11895</v>
+        <v>23.70435</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>295.40693</v>
+        <v>26.24531</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>929.02685</v>
+        <v>660.3962899999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1769.06337</v>
+        <v>918.16923</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>4642.394719999999</v>
+        <v>3476.32611</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>40929.2874</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8095.62888</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3458.147</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4851511.7751</v>
+        <v>4141969.0196</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4853179.73625</v>
+        <v>4063329.45533</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5703947.24652</v>
+        <v>4811994.94467</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5002328.45851</v>
+        <v>4282025.45575</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4990057.76809</v>
+        <v>3651377.62364</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5390169.29418</v>
+        <v>4062489.98562</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>9259280.668680001</v>
+        <v>8421158.26034</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7120212.45009</v>
+        <v>5471068.41851</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9179351.57849</v>
+        <v>7159533.99464</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11213946.88151</v>
+        <v>7428726.744600001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12015573.14464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7460429.54992</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>14354059.38</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2567855.53261</v>
+        <v>2328536.74148</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1871118.07279</v>
+        <v>1603624.76796</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2810771.30354</v>
+        <v>2527862.31619</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2263163.5421</v>
+        <v>1945411.2521</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2164065.51652</v>
+        <v>1683049.46827</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2500471.17217</v>
+        <v>2073387.66704</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2519307.36702</v>
+        <v>2069362.6412</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3180349.8276</v>
+        <v>2694962.44213</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4423857.0043</v>
+        <v>3763947.54815</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4214166.22988</v>
+        <v>3052649.41727</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5465805.16341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3913731.0485</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>9080032.426000001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>107769.54937</v>
+        <v>71868.29194</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>23619.13645</v>
+        <v>820.74356</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>35511.75938</v>
+        <v>1150.67985</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>17588.0379</v>
+        <v>1248.54608</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>18882.29468</v>
+        <v>0</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>39071.9695</v>
+        <v>1208.3152</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>24330.78266</v>
+        <v>0</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>34970.41648</v>
+        <v>13277.64351</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>109944.74628</v>
+        <v>90571.56959</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>14331.42633</v>
+        <v>10398.79434</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6936.17699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1430.57288</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2044381.077</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>862066.93984</v>
+        <v>852100.61714</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>534250.66559</v>
+        <v>507720.87763</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>338386.94373</v>
+        <v>318371.80641</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>399920.65431</v>
+        <v>381175.44685</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>259986.01567</v>
+        <v>234763.76225</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>215729.83764</v>
+        <v>188287.45199</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>187238.47529</v>
+        <v>144284.6051</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>243966.05384</v>
+        <v>178320.22954</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>697008.8496500001</v>
+        <v>616297.19487</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>243435.38566</v>
+        <v>133428.98546</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>421776.40607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>248080.96161</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2392874.353</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1594854.46815</v>
+        <v>1404567.8324</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1310734.62994</v>
+        <v>1095083.14677</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2430296.88421</v>
+        <v>2208339.82993</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1828489.4293</v>
+        <v>1551861.64564</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1845345.68575</v>
+        <v>1448285.70602</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2231525.53604</v>
+        <v>1883198.82291</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2288246.0406</v>
+        <v>1910389.94754</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2878437.54673</v>
+        <v>2503161.46655</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3590587.55933</v>
+        <v>3054059.55034</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3934405.10653</v>
+        <v>2898833.36218</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4969985.813680001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3664217.39182</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4564493.618</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3164.57525</v>
+        <v>0</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2513.64081</v>
+        <v>0</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6575.716219999999</v>
+        <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>17165.42059</v>
+        <v>11125.61353</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>39851.52042</v>
+        <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>14143.82899</v>
+        <v>693.0769399999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>19492.06847</v>
+        <v>14688.08856</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>22975.81055</v>
+        <v>203.10253</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>26315.84904</v>
+        <v>3019.23335</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>21994.31136</v>
+        <v>9988.27529</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>67106.76667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.12219</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>78283.378</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>2283656.24249</v>
+        <v>1813432.27812</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>2982061.66346</v>
+        <v>2459704.68737</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2893175.94298</v>
+        <v>2284132.62848</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2739164.916410001</v>
+        <v>2336614.20365</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2825992.25157</v>
+        <v>1968328.15537</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2889698.12201</v>
+        <v>1989102.31858</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>6739973.301659999</v>
+        <v>6351795.619139999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3939862.62249</v>
+        <v>2776105.976379999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4755494.574189999</v>
+        <v>3395586.44649</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6999780.65163</v>
+        <v>4376077.32733</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6549767.981229999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3546698.50142</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5274026.954</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1372424.87835</v>
+        <v>624128.1743399999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1494733.07383</v>
+        <v>670103.0276499999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1716088.52086</v>
+        <v>747107.79875</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2017881.45269</v>
+        <v>1107261.28145</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2045936.24561</v>
+        <v>809395.13289</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2536090.5704</v>
+        <v>1140785.27815</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2778740.02751</v>
+        <v>1599830.62007</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3451047.74627</v>
+        <v>1704517.75581</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4046535.89652</v>
+        <v>1905083.70868</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5055107.46162</v>
+        <v>1486648.14438</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5746235.00309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2385356.45252</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3171318.767</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>18275.3119</v>
+        <v>17195.85577</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>15289.54164</v>
+        <v>14096.69539</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>16091.9505</v>
+        <v>15131.0573</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>16569.23009</v>
+        <v>15841.5696</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>25021.85254</v>
+        <v>21541.44127</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>31739.86006</v>
+        <v>31739.07056</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>30577.92292</v>
@@ -1598,505 +1584,570 @@
         <v>35447.57178</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>30369.25425</v>
+        <v>30368.35425</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>40280.98027</v>
+        <v>39858.50849</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>53349.35567</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>54938.685</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>144250.5655</v>
+        <v>134446.87776</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>85019.34166000001</v>
+        <v>72722.64847</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>96194.15698</v>
+        <v>78582.08241</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>133938.6505</v>
+        <v>120812.95311</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>46947.00147</v>
+        <v>29104.10619</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>33041.18548</v>
+        <v>8052.022660000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>30187.64692</v>
+        <v>21461.94019</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>46072.0795</v>
+        <v>29948.38536</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>56844.4267</v>
+        <v>33804.67035</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>156721.29774</v>
+        <v>72140.11614</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>223679.83116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>86999.77359</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>384002.924</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1209899.00095</v>
+        <v>472485.44081</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1394424.19053</v>
+        <v>583283.6837899999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1603802.41338</v>
+        <v>653394.6590399999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1867373.5721</v>
+        <v>970606.7587399998</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1973967.3916</v>
+        <v>758749.58543</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2471309.52486</v>
+        <v>1100994.18493</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2717974.45767</v>
+        <v>1547790.75696</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3369528.09499</v>
+        <v>1639121.79867</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3959322.21557</v>
+        <v>1840910.68408</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4858105.183610001</v>
+        <v>1374649.51975</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5469205.816259999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2245007.32326</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2732377.158</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>911231.36414</v>
+        <v>1189304.10378</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1487328.58963</v>
+        <v>1789601.65972</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1177087.42212</v>
+        <v>1537024.82973</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>721283.4637199999</v>
+        <v>1229352.9222</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>780056.00596</v>
+        <v>1158933.02248</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>353607.55161</v>
+        <v>848317.0404299999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3961233.27415</v>
+        <v>4751964.99907</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>488814.87622</v>
+        <v>1071588.22057</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>708958.6776700001</v>
+        <v>1490502.73781</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1944673.19001</v>
+        <v>2889429.18295</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>803532.97814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1161342.0489</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2102708.187</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>8974509.434269998</v>
+        <v>4085084.3319</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>9984711.132780001</v>
+        <v>4573071.5307</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>14003809.66018</v>
+        <v>6957004.36587</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>12312244.79371</v>
+        <v>6210291.21304</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>17500805.5482</v>
+        <v>5164022.31037</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>20243436.52236</v>
+        <v>10823405.67357</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>35772634.73255</v>
+        <v>22723636.31049</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>34325223.13484</v>
+        <v>17751349.69829</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>41147971.67444</v>
+        <v>20295311.05371</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>85587441.07098001</v>
+        <v>24989460.90671</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>73839919.3229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>23045974.52401</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>39340100.509</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1124559.83662</v>
+        <v>341052.2068099999</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1358801.99542</v>
+        <v>483588.00544</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1837295.26534</v>
+        <v>728311.81117</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2423098.26805</v>
+        <v>1144068.01463</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2828637.19632</v>
+        <v>1140968.11654</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3405811.80734</v>
+        <v>1153528.00719</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>4187974.51716</v>
+        <v>1684470.89467</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>4199256.65539</v>
+        <v>1254161.62691</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5842323.061269999</v>
+        <v>1483927.4097</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>7438372.61789</v>
+        <v>2981817.22666</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>7987084.896430001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2881930.0018</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3287623.48</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1455489.0262</v>
+        <v>582808.15871</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1906197.90019</v>
+        <v>499841.61073</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2422250.20204</v>
+        <v>744380.6730699999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>3008632.57328</v>
+        <v>1374650.98585</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>3044396.36623</v>
+        <v>518806.02014</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3684837.86794</v>
+        <v>2237758.43987</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5150694.30931</v>
+        <v>2245958.10785</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>5883724.57225</v>
+        <v>2847314.57885</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>7121141.19805</v>
+        <v>3239988.56571</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>14226712.00792</v>
+        <v>2183253.39266</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>21499094.34629</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2785976.0959</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>6467935.666</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1071774.89945</v>
+        <v>515966.88963</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>884502.00763</v>
+        <v>471959.11353</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1505363.54969</v>
+        <v>593756.77176</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1713609.5443</v>
+        <v>815493.48987</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1984699.69984</v>
+        <v>718210.9448099999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2683199.13372</v>
+        <v>1300708.04924</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3052604.21553</v>
+        <v>1933389.84006</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3814531.51719</v>
+        <v>2377468.48433</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>5121587.326389999</v>
+        <v>3405929.63728</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8346287.131519999</v>
+        <v>3597053.68339</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>10542464.84813</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6452030.56424</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3597122.79</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>14401.2027</v>
+        <v>7703.309240000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>9445.42726</v>
+        <v>919.18561</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>20456.95051</v>
+        <v>5950.722819999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>21819.8702</v>
+        <v>10938.12364</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>36764.45547</v>
+        <v>18475.60277</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>51078.74609</v>
+        <v>28128.28694</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>71292.29888</v>
+        <v>39840.65569</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>76103.9225</v>
+        <v>44462.34163</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>112626.41855</v>
+        <v>70185.37514</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>147910.50579</v>
+        <v>62946.36805999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>229176.96867</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>134305.98784</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>300710.815</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>423970.82928</v>
+        <v>76525.79145999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>411723.59786</v>
+        <v>59663.31415</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>289360.69592</v>
+        <v>59613.97393</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>346715.4913</v>
+        <v>114400.764</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1157423.87832</v>
+        <v>45160.47444999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>387040.25925</v>
+        <v>42945.46937000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1245680.23959</v>
+        <v>43330.12978</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1089545.33061</v>
+        <v>46187.3739</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>501073.3159099999</v>
+        <v>160057.3659</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>241618.36492</v>
+        <v>68862.83802</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>220444.70611</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1917.42117</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>33099.018</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>202659.09557</v>
+        <v>13533.79536</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>732090.0249</v>
+        <v>22650.79898</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1110278.28219</v>
+        <v>793413.11078</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>382445.0735</v>
+        <v>19507.49442</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>656163.07143</v>
+        <v>94142.59199000002</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>603420.8144</v>
+        <v>41012.64863</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5335114.6528</v>
+        <v>5114842.64644</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>280282.52805</v>
+        <v>28654.48806</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2126982.59577</v>
+        <v>1689517.8799</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3698552.25821</v>
+        <v>2506001.4527</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1712160.0718</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>773595.1887899999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4291106.607</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3997909.68076</v>
+        <v>2123138.37734</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4115020.67034</v>
+        <v>2680493.91305</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5918100.40194</v>
+        <v>3600717.27149</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3690114.42339</v>
+        <v>2243006.77313</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7078092.3043</v>
+        <v>2308904.06218</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8574116.34348</v>
+        <v>5578586.06844</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>15690097.1205</v>
+        <v>11138070.28169</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>17921494.43173</v>
+        <v>10772542.43455</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>18552491.86143</v>
+        <v>9578475.665369999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>49172018.43511999</v>
+        <v>13062387.52771</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>28302708.99312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9293676.86734</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>20428935.735</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>845.88495</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>466.21455</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>169.54485</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>270.2598400000001</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>6074.49157</v>
+        <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>7918.01341</v>
+        <v>4.28857</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>755.03711</v>
+        <v>19.09108</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>783.48262</v>
+        <v>0</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1646.73517</v>
+        <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>10890.9171</v>
+        <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>161439.43128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>355.538</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>9.46425</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>800.1955700000001</v>
+        <v>548.1985400000001</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>550.7594799999999</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>465.1388</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>0</v>
@@ -2113,284 +2164,324 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>682889.51449</v>
+        <v>424355.8033499999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>566463.29463</v>
+        <v>353955.5892100001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>899734.57213</v>
+        <v>430311.83231</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>725539.2898500001</v>
+        <v>488225.5675</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>708003.32524</v>
+        <v>319354.49749</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>845548.3979300001</v>
+        <v>440734.41532</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1038422.34167</v>
+        <v>523714.66323</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1059500.6945</v>
+        <v>380558.37006</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1768099.1619</v>
+        <v>667229.15471</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2305078.83251</v>
+        <v>527138.4175100001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3185345.06107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>722542.3969299999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>933210.86</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3764654.61189</v>
+        <v>1863703.51197</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4074000.35611</v>
+        <v>2611383.79887</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4520544.77564</v>
+        <v>2871409.5983</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3626417.93246</v>
+        <v>2411176.25712</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5910197.016020001</v>
+        <v>898316.45413</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>7475457.800439999</v>
+        <v>3838945.12138</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>13176245.18622</v>
+        <v>6489979.63589</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>13938994.53638</v>
+        <v>6180727.17917</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>15086804.66979</v>
+        <v>5717109.50099</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>41892197.6168</v>
+        <v>7202629.216219999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>28120623.56474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6301346.85645</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14676771.388</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6845.25329</v>
+        <v>2309.44597</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>4183.28024</v>
+        <v>1139.3579</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>6071.57008</v>
+        <v>633.5320400000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>6296.682610000001</v>
+        <v>1447.01525</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>23327.28745</v>
+        <v>20558.94425</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3449.81922</v>
+        <v>1168.48676</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3689.3237</v>
+        <v>1837.08887</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>10080.64455</v>
+        <v>6379.7618</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>10359.75829</v>
+        <v>7984.84761</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>33719.2034</v>
+        <v>782.99537</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>25039.3419</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7091.1986</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>97334.452</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>97780.53789000001</v>
+        <v>20363.01616</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>20217.99196</v>
+        <v>11801.41084</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>27785.03028</v>
+        <v>8706.696260000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>139684.43992</v>
+        <v>120137.61958</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>49790.95367</v>
+        <v>3820.1626</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>70984.07547999998</v>
+        <v>4314.894429999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>41700.78000999999</v>
+        <v>13912.55642</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>15011.65355</v>
+        <v>4711.22025</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>25905.59296</v>
+        <v>5639.420450000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>145673.32956</v>
+        <v>61572.36992</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>28706.26337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>9944.248380000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11326.29</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>50720.64672</v>
+        <v>4427.243960000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>239050.20281</v>
+        <v>196636.67001</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>187031.84385</v>
+        <v>98929.80800999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>86400.40893999999</v>
+        <v>28489.93908</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>76912.40637000001</v>
+        <v>8513.424080000001</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>276852.59928</v>
+        <v>14171.00356</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>104688.48791</v>
+        <v>59282.38476</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>112460.31443</v>
+        <v>3623.19833</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>219734.90263</v>
+        <v>70574.90381999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>408793.61848</v>
+        <v>134215.67279</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>253276.42905</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>660.5579</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>212140.24</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3451212.78895</v>
+        <v>1758818.48647</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3555163.27723</v>
+        <v>2298479.85701</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3827631.30069</v>
+        <v>2416185.31748</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>3140306.1724</v>
+        <v>2176360.81841</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5547227.62033</v>
+        <v>845843.09663</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6928265.293670001</v>
+        <v>3746617.01778</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12287032.72989</v>
+        <v>6292048.32463</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13337887.94354</v>
+        <v>6000093.70212</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>14033938.20686</v>
+        <v>5413729.910809999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>38908904.58179</v>
+        <v>6562772.8675</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>27043054.53748</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6036659.31758</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13376452.035</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>4058.74139</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>304.85049</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>2184.03316</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>140.31229</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1307.77984</v>
+        <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>6152.96208</v>
+        <v>7.2986</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>6702.80233</v>
+        <v>19.09108</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>855.3679100000001</v>
+        <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>586.46872</v>
+        <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>8331.83779</v>
+        <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>28638.69377</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>692757.653</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>282653.8253</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2423,595 +2514,673 @@
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>6022.606870000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>154036.64365</v>
+        <v>77785.31941</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>255080.75338</v>
+        <v>103326.50311</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>469840.99758</v>
+        <v>346954.24451</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>253589.9163</v>
+        <v>84740.8648</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>211630.96836</v>
+        <v>19580.82657</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>189753.05071</v>
+        <v>72666.42025</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>449777.23708</v>
+        <v>122880.19013</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>462698.6124</v>
+        <v>165919.29667</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>796279.7403299999</v>
+        <v>219180.4183</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2386775.04578</v>
+        <v>443285.31064</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>735885.6923</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>246991.53399</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>286760.718</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1979933.46416</v>
+        <v>1086840.03918</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2034189.18874</v>
+        <v>1086731.8723</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4178928.64091</v>
+        <v>2243723.48415</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2546147.65768</v>
+        <v>1370396.55766</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>5891424.47164</v>
+        <v>3164479.52299</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6416359.414609999</v>
+        <v>4489903.926360001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>13594816.65713</v>
+        <v>10324753.59481</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>16123399.07037</v>
+        <v>11124244.2534</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>16401736.12181</v>
+        <v>11303122.06241</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>39239754.60138</v>
+        <v>17034032.29869</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>31666366.15652</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15957939.44072</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>25410166.266</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1068555.35244</v>
+        <v>586719.80483</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1353758.1877</v>
+        <v>788003.5599199999</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2706099.548609999</v>
+        <v>1610249.68115</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1711247.42917</v>
+        <v>1042981.44124</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3457887.36489</v>
+        <v>2006255.31466</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4180934.43087</v>
+        <v>2813087.76541</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>9304160.54239</v>
+        <v>7011569.635609999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>10264408.97432</v>
+        <v>6710643.18006</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>11787377.14267</v>
+        <v>8218628.62626</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>24273698.04827</v>
+        <v>10457986.8067</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>20308589.87292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>10512944.71907</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>17978035.91</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>911378.11172</v>
+        <v>500120.23435</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>680431.0010400001</v>
+        <v>298728.31238</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1472829.0923</v>
+        <v>633473.803</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>834900.22851</v>
+        <v>327415.11642</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2433537.10675</v>
+        <v>1158224.20833</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2235424.98374</v>
+        <v>1676816.16095</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4290656.11474</v>
+        <v>3313183.9592</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5858990.09605</v>
+        <v>4413601.073340001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>4614358.979139999</v>
+        <v>3084493.43615</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>14966056.55311</v>
+        <v>6576045.49199</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>11357776.2836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5444994.72165</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7432130.356</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4141152.72236</v>
+        <v>2323844.88453</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5363850.177560001</v>
+        <v>2664557.51925</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6481423.66575</v>
+        <v>3378896.11315</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6860962.66729</v>
+        <v>3658071.32046</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>6479240.0665</v>
+        <v>2260159.355729999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6705226.85892</v>
+        <v>3342873.66626</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>12962806.16335</v>
+        <v>10660868.07886</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4751644.404309999</v>
+        <v>1517966.48629</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>10368389.56051</v>
+        <v>4765582.22812</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>6400162.04281</v>
+        <v>3642228.57475</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>14856462.57978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1948030.27574</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1355871.042</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1079850.61867</v>
+        <v>557743.8777300001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1618283.9496</v>
+        <v>136649.36902</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1392970.39151</v>
+        <v>956995.49236</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1788686.39501</v>
+        <v>387406.7312799999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4668477.54968</v>
+        <v>3477146.62764</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1395451.94815</v>
+        <v>929407.5159700001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3792712.62843</v>
+        <v>2297252.31191</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4775225.749020001</v>
+        <v>3160115.55206</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7394838.43454</v>
+        <v>2988808.50163</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>9664254.227739999</v>
+        <v>1234785.45247</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6551986.737660001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1446370.11723</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1920560.476</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7326.073530000001</v>
+        <v>143.55336</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>10111.88569</v>
+        <v>139.10206</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2617.241480000001</v>
+        <v>15.13551</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>39772.49676</v>
+        <v>35606.85429</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>8129.58561</v>
+        <v>189.4664</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>2932.58007</v>
+        <v>407.79667</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>9030.434449999999</v>
+        <v>1700.41355</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>7659.094389999999</v>
+        <v>3548.9666</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>6772.333509999999</v>
+        <v>2018.70403</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>11282.71946</v>
+        <v>2444.48872</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>21455.65296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2220.61635</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1157.999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1072524.54514</v>
+        <v>557600.32437</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1608172.06391</v>
+        <v>136510.26696</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1390353.15003</v>
+        <v>956980.3568499999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1748913.89825</v>
+        <v>351799.87699</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4660347.96407</v>
+        <v>3476957.16124</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1392519.36808</v>
+        <v>928999.7193000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3783682.19398</v>
+        <v>2295551.89836</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4767566.65463</v>
+        <v>3156566.58546</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7388066.10103</v>
+        <v>2986789.7976</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>9652971.508279998</v>
+        <v>1232340.96375</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6530531.0847</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1444149.50088</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1919402.477</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>329762.13257</v>
+        <v>166538.39127</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>937008.0573999999</v>
+        <v>525740.75924</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2189763.74054</v>
+        <v>1356672.50719</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>496761.4557700001</v>
+        <v>321916.49251</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1536690.71391</v>
+        <v>159866.42449</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1016027.59087</v>
+        <v>833366.6084500001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>796784.6627099999</v>
+        <v>193682.32197</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1959087.77731</v>
+        <v>1156110.78248</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>940289.1268900001</v>
+        <v>508664.57052</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1524472.8128</v>
+        <v>245125.40147</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2718242.39816</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1694899.05707</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1622547.697</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1709.79294</v>
+        <v>1427.86101</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>373.30162</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>395.37138</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>377.35236</v>
+        <v>37.45878</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>679.87024</v>
+        <v>22.30646</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>673.11512</v>
+        <v>117.19684</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>704.27001</v>
+        <v>230.371</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>623.59974</v>
+        <v>69.40953999999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1051.85234</v>
+        <v>296.49396</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1353.34263</v>
+        <v>143.516</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1993.81338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>549.21861</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>105420.95</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>28160.95258</v>
+        <v>7857.562099999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>28838.72277</v>
+        <v>6168.267029999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>23397.09869</v>
+        <v>8170.545679999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>20876.15512</v>
+        <v>9220.10241</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8665.968419999999</v>
+        <v>616.9362</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>111172.84513</v>
+        <v>3549.24701</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>42371.13144999999</v>
+        <v>1185.35883</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>37114.66942</v>
+        <v>4301.49039</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>38289.48106</v>
+        <v>5393.54025</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>29965.72336</v>
+        <v>14195.61094</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>23651.4371</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9143.51352</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>14834.006</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>299891.38705</v>
+        <v>157252.96816</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>907796.03301</v>
+        <v>519572.49221</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2165971.27047</v>
+        <v>1348501.96151</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>475507.94829</v>
+        <v>312658.93132</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1527344.87525</v>
+        <v>159227.18183</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>904181.63062</v>
+        <v>829700.1646</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>753709.26125</v>
+        <v>192266.59214</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1921349.50815</v>
+        <v>1151739.88255</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>900947.79349</v>
+        <v>502974.53631</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1493153.74681</v>
+        <v>230786.27453</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2692597.14768</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1685206.32494</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1502292.741</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4891241.20846</v>
+        <v>2715050.37099</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6045126.06976</v>
+        <v>2275466.12903</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5684630.31672</v>
+        <v>2979219.09832</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8152887.60653</v>
+        <v>3723561.559229999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>9611026.90227</v>
+        <v>5577439.55888</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>7084651.216200001</v>
+        <v>3438914.57378</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>15958734.12907</v>
+        <v>12764438.0688</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>7567782.376019999</v>
+        <v>3521971.25587</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>16822938.86816</v>
+        <v>7245726.15923</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>14539943.45775</v>
+        <v>4631888.62575</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>18690206.91928</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1699501.3359</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1653883.821</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>177715.58655</v>
+        <v>73825.17531999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>192346.89542</v>
+        <v>53764.68901</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>515885.11918</v>
+        <v>247096.91393</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>211981.83785</v>
+        <v>71507.51033</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>418571.98387</v>
+        <v>91367.38488</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>282947.17481</v>
+        <v>96155.95279000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>461251.77363</v>
+        <v>244040.13891</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>477967.09403</v>
+        <v>157489.76875</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>486030.11927</v>
+        <v>175995.79482</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1151536.10843</v>
+        <v>280439.78483</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>680400.81294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>169198.66002</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>209141.784</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4713525.621910001</v>
+        <v>2641225.19567</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>5852779.17434</v>
+        <v>2221701.44002</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>5168745.19754</v>
+        <v>2732122.18439</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>7940905.768680001</v>
+        <v>3652054.0489</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>9192454.918399999</v>
+        <v>5486072.174</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>6801704.04139</v>
+        <v>3342758.62099</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>15497482.35544</v>
+        <v>12520397.92989</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>7089815.281990001</v>
+        <v>3364481.48712</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>16336908.74889</v>
+        <v>7069730.36441</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>13388407.34932</v>
+        <v>4351448.84092</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>18009806.10634</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1530302.67588</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1444742.037</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>372</v>
+        <v>44</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>402</v>
+        <v>31</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>423</v>
+        <v>39</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>436</v>
+        <v>46</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>482</v>
+        <v>52</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>519</v>
+        <v>68</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>375</v>
+        <v>37</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>36</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>